--- a/result.xlsx
+++ b/result.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="ubuntu" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="centos" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="IP_SSH_FAIL" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -696,7 +695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -888,29 +887,95 @@
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>192.168.227.12 SSH Fail!</t>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>192.168.227.12</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>CentOS Linux</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="N3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="O3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="P3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="Q3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="R3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ubuntu" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="centos" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="centos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ubuntu" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -462,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,90 +488,75 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_KERNEL_NEWEST</t>
+          <t>CHECK_LISTS_USER</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>NOT_NECESSARY_PACKAGE</t>
+          <t>IPTABLES</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_LISTS_USER</t>
+          <t>APP_USING_ROOT</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>IPTABLES</t>
+          <t>TIMEZONE</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>APP_USING_ROOT</t>
+          <t>SSH_PROTOCOL2</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>TIMEZONE</t>
+          <t>CHECK_CONF_PASSWORD</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>SSH_PROTOCOL2</t>
+          <t>90_DAYS_CHANGE_PASS</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_CONF_PASSWORD</t>
+          <t>CHECK_TMOUT</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_CONF_PASSWORD_SHA512</t>
+          <t>PERMIT_ROOT_LOGIN</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>90_DAYS_CHANGE_PASS</t>
+          <t>CHECK_ALLOW_USERS</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_TMOUT</t>
+          <t>GROUP_SUDO_WHEEL</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>PERMIT_ROOT_LOGIN</t>
+          <t>CHECK_NF_CONNTRACK</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_ALLOW_USERS</t>
+          <t>CHECK_IP_CONNTRACK</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>GROUP_SUDO_WHEEL</t>
+          <t>CHECK_CRONTAB</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>CHECK_NF_CONNTRACK</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>CHECK_IP_CONNTRACK</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>CHECK_CRONTAB</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>CHECK_CRONTAB_MAX_CONF</t>
         </is>
@@ -580,12 +565,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>192.168.227.10</t>
+          <t>192.168.159.34</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Ubuntu</t>
+          <t>CentOS Linux</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -608,29 +593,29 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="H2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="J2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="J2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="K2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="L2" s="5" t="inlineStr">
@@ -643,24 +628,24 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="N2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="O2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="P2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="Q2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="N2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="O2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="P2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="Q2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="R2" s="5" t="inlineStr">
@@ -668,17 +653,370 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="S2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="T2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="U2" s="5" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>192.168.159.56</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>CentOS Linux</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="M3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="N3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="O3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="P3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="Q3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="R3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>192.168.159.67</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>CentOS Linux</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="J4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="M4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="N4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="O4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="P4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="Q4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="R4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>192.168.159.201</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>CentOS Linux</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="M5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="N5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="O5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="P5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="Q5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="R5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>192.168.159.101</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>CentOS Linux</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
         <is>
           <t>WARNING</t>
         </is>
@@ -695,7 +1033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,75 +1059,90 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>CHECK_KERNEL_NEWEST</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>NOT_NECESSARY_PACKAGE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>CHECK_LISTS_USER</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>IPTABLES</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>APP_USING_ROOT</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>TIMEZONE</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>SSH_PROTOCOL2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>CHECK_CONF_PASSWORD</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_CONF_PASSWORD_SHA512</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>90_DAYS_CHANGE_PASS</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>CHECK_TMOUT</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>PERMIT_ROOT_LOGIN</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>CHECK_ALLOW_USERS</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>GROUP_SUDO_WHEEL</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>CHECK_NF_CONNTRACK</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>CHECK_IP_CONNTRACK</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>CHECK_CRONTAB</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>CHECK_CRONTAB_MAX_CONF</t>
         </is>
@@ -798,12 +1151,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>192.168.227.11</t>
+          <t>192.168.159.178</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>CentOS Linux</t>
+          <t>Ubuntu</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -826,9 +1179,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="H2" s="4" t="inlineStr">
@@ -836,9 +1189,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="I2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="J2" s="5" t="inlineStr">
@@ -846,19 +1199,19 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="K2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="L2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="K2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="L2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="M2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="N2" s="4" t="inlineStr">
@@ -876,12 +1229,27 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="Q2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="Q2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="R2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="S2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="T2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="U2" s="5" t="inlineStr">
         <is>
           <t>WARNING</t>
         </is>
@@ -890,12 +1258,12 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>192.168.227.12</t>
+          <t>192.168.159.23</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>CentOS Linux</t>
+          <t>Ubuntu</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -908,9 +1276,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -918,19 +1286,19 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="J3" s="5" t="inlineStr">
@@ -943,24 +1311,24 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="L3" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M3" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="N3" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="O3" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="L3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="M3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="N3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="O3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="P3" s="5" t="inlineStr">
@@ -974,6 +1342,342 @@
         </is>
       </c>
       <c r="R3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="S3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="T3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="U3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>192.168.159.90</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Ubuntu</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="M4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="N4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="O4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Q4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="R4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="S4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="T4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="U4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>192.168.159.44</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Ubuntu</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="M5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="N5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="O5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="Q5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="R5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="S5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="T5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="U5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>192.168.159.88</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Ubuntu</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="N6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="O6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
         <is>
           <t>WARNING</t>
         </is>

--- a/result.xlsx
+++ b/result.xlsx
@@ -462,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,6 +561,11 @@
           <t>CHECK_CRONTAB_MAX_CONF</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_NETWORK_MANAGER</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -653,6 +658,11 @@
           <t>WARNING</t>
         </is>
       </c>
+      <c r="S2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -745,6 +755,11 @@
           <t>WARNING</t>
         </is>
       </c>
+      <c r="S3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -837,6 +852,11 @@
           <t>WARNING</t>
         </is>
       </c>
+      <c r="S4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -929,6 +949,11 @@
           <t>WARNING</t>
         </is>
       </c>
+      <c r="S5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -1017,6 +1042,11 @@
         </is>
       </c>
       <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
         <is>
           <t>WARNING</t>
         </is>

--- a/result.xlsx
+++ b/result.xlsx
@@ -638,14 +638,14 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="O2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="P2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="O2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="Q2" s="5" t="inlineStr">
@@ -658,9 +658,9 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="S2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="S2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -735,14 +735,14 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="O3" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="P3" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="O3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="Q3" s="5" t="inlineStr">
@@ -755,9 +755,9 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="S3" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="S3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -832,14 +832,14 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="O4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
@@ -1209,9 +1209,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="H2" s="4" t="inlineStr">
@@ -1316,9 +1316,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="G3" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
@@ -1423,9 +1423,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="H4" s="4" t="inlineStr">
@@ -1530,9 +1530,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="H5" s="4" t="inlineStr">
@@ -1637,9 +1637,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="G6" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="H6" s="4" t="inlineStr">

--- a/result.xlsx
+++ b/result.xlsx
@@ -603,9 +603,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="I2" s="5" t="inlineStr">
@@ -613,14 +613,14 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="J2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="K2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="L2" s="5" t="inlineStr">
@@ -700,9 +700,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="I3" s="5" t="inlineStr">
@@ -710,14 +710,14 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="K3" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="L3" s="5" t="inlineStr">
@@ -797,9 +797,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="I4" s="5" t="inlineStr">
@@ -807,14 +807,14 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="J4" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="K4" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="L4" s="5" t="inlineStr">
@@ -894,9 +894,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H5" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="I5" s="5" t="inlineStr">
@@ -904,14 +904,14 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="L5" s="5" t="inlineStr">
@@ -929,14 +929,14 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="O5" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="P5" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="O5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="Q5" s="5" t="inlineStr">
@@ -949,9 +949,9 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="S5" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="S5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -991,9 +991,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H6" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="I6" s="5" t="inlineStr">
@@ -1001,14 +1001,14 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="J6" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="K6" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="L6" s="5" t="inlineStr">
@@ -1026,14 +1026,14 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="O6" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="P6" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="O6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="Q6" s="5" t="inlineStr">
@@ -1046,9 +1046,9 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="S6" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="S6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1239,9 +1239,9 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="M2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="M2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="N2" s="4" t="inlineStr">
@@ -1346,9 +1346,9 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="M3" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="M3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="N3" s="4" t="inlineStr">
@@ -1453,9 +1453,9 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="M4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="N4" s="4" t="inlineStr">
@@ -1560,9 +1560,9 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="M5" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="M5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="N5" s="4" t="inlineStr">
@@ -1667,9 +1667,9 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="M6" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="N6" s="4" t="inlineStr">

--- a/result.xlsx
+++ b/result.xlsx
@@ -638,14 +638,14 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="O2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="P2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="O2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="P2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="Q2" s="5" t="inlineStr">
@@ -735,14 +735,14 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="O3" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="P3" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="O3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="P3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="Q3" s="5" t="inlineStr">
@@ -832,14 +832,14 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="O4" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="P4" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="O4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="P4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
@@ -929,14 +929,14 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="O5" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="P5" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="O5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="P5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="Q5" s="5" t="inlineStr">
@@ -1026,14 +1026,14 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="P6" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="Q6" s="5" t="inlineStr">
@@ -1063,7 +1063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1109,70 +1109,75 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>NETFILTER</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>APP_USING_ROOT</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>TIMEZONE</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>SSH_PROTOCOL2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>CHECK_CONF_PASSWORD</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>CHECK_CONF_PASSWORD_SHA512</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>90_DAYS_CHANGE_PASS</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>CHECK_TMOUT</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>PERMIT_ROOT_LOGIN</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>CHECK_ALLOW_USERS</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>GROUP_SUDO_WHEEL</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>CHECK_NF_CONNTRACK</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>CHECK_IP_CONNTRACK</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>CHECK_CRONTAB</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>CHECK_CRONTAB_MAX_CONF</t>
         </is>
@@ -1219,14 +1224,14 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="J2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="K2" s="5" t="inlineStr">
@@ -1239,9 +1244,9 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="M2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="M2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="N2" s="4" t="inlineStr">
@@ -1254,9 +1259,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="P2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="P2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="Q2" s="5" t="inlineStr">
@@ -1280,6 +1285,11 @@
         </is>
       </c>
       <c r="U2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="V2" s="5" t="inlineStr">
         <is>
           <t>WARNING</t>
         </is>
@@ -1331,9 +1341,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="K3" s="5" t="inlineStr">
@@ -1346,9 +1356,9 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="M3" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="M3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="N3" s="4" t="inlineStr">
@@ -1361,9 +1371,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="P3" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="P3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="Q3" s="5" t="inlineStr">
@@ -1387,6 +1397,11 @@
         </is>
       </c>
       <c r="U3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="V3" s="5" t="inlineStr">
         <is>
           <t>WARNING</t>
         </is>
@@ -1443,9 +1458,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="K4" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="L4" s="5" t="inlineStr">
@@ -1453,9 +1468,9 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="M4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="N4" s="4" t="inlineStr">
@@ -1473,9 +1488,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="Q4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
@@ -1494,6 +1509,11 @@
         </is>
       </c>
       <c r="U4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="V4" s="5" t="inlineStr">
         <is>
           <t>WARNING</t>
         </is>
@@ -1545,9 +1565,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="K5" s="5" t="inlineStr">
@@ -1560,9 +1580,9 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="M5" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="M5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="N5" s="4" t="inlineStr">
@@ -1575,9 +1595,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="P5" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="P5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="Q5" s="5" t="inlineStr">
@@ -1601,6 +1621,11 @@
         </is>
       </c>
       <c r="U5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="V5" s="5" t="inlineStr">
         <is>
           <t>WARNING</t>
         </is>
@@ -1657,9 +1682,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="K6" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="L6" s="5" t="inlineStr">
@@ -1667,9 +1692,9 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="N6" s="4" t="inlineStr">
@@ -1687,9 +1712,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="Q6" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="Q6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="R6" s="5" t="inlineStr">
@@ -1708,6 +1733,11 @@
         </is>
       </c>
       <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
         <is>
           <t>WARNING</t>
         </is>

--- a/result.xlsx
+++ b/result.xlsx
@@ -638,14 +638,14 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="O2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="P2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="O2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="Q2" s="5" t="inlineStr">
@@ -735,14 +735,14 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="O3" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="P3" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="O3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="Q3" s="5" t="inlineStr">
@@ -832,14 +832,14 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="O4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
@@ -929,14 +929,14 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="O5" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="P5" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="O5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="Q5" s="5" t="inlineStr">
@@ -1026,14 +1026,14 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="O6" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="P6" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="O6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="Q6" s="5" t="inlineStr">
@@ -1063,7 +1063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1182,6 +1182,11 @@
           <t>CHECK_CRONTAB_MAX_CONF</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>RC_LOCAL_CHECK</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -1224,9 +1229,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="I2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="J2" s="4" t="inlineStr">
@@ -1274,14 +1279,14 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="S2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="T2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="S2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="T2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="U2" s="5" t="inlineStr">
@@ -1290,6 +1295,11 @@
         </is>
       </c>
       <c r="V2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="W2" s="5" t="inlineStr">
         <is>
           <t>WARNING</t>
         </is>
@@ -1406,6 +1416,11 @@
           <t>WARNING</t>
         </is>
       </c>
+      <c r="W3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -1498,14 +1513,14 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="S4" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="T4" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="S4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="T4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="U4" s="5" t="inlineStr">
@@ -1516,6 +1531,11 @@
       <c r="V4" s="5" t="inlineStr">
         <is>
           <t>WARNING</t>
+        </is>
+      </c>
+      <c r="W4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1630,6 +1650,11 @@
           <t>WARNING</t>
         </is>
       </c>
+      <c r="W5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -1738,6 +1763,11 @@
         </is>
       </c>
       <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
         <is>
           <t>WARNING</t>
         </is>

--- a/result.xlsx
+++ b/result.xlsx
@@ -462,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,6 +586,21 @@
           <t>RC_LOCAL_CHECK</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>BLUETOOTH</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>CUPS</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_KDUMP</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -701,6 +716,21 @@
       <c r="W2" s="4" t="inlineStr">
         <is>
           <t>OK</t>
+        </is>
+      </c>
+      <c r="X2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Y2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="Z2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
     </row>
@@ -715,7 +745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -819,6 +849,21 @@
           <t>CHECK_NETWORK_MANAGER</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>BLUETOOTH</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>CUPS</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_KDUMP</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -916,6 +961,21 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="T2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="U2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="V2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -988,27 +1048,42 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="O3" s="5" t="inlineStr">
+      <c r="O3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Q3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="R3" s="5" t="inlineStr">
         <is>
           <t>WARNING</t>
         </is>
       </c>
-      <c r="P3" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="Q3" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="R3" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
       <c r="S3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="T3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="U3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="V3" s="4" t="inlineStr">
         <is>
           <t>OK</t>
         </is>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="ubuntu" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="centos" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="IP_SSH_FAIL" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -563,12 +563,12 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_NF_CONNTRACK</t>
+          <t>CHECK_NF_CONNTRACK_MAX</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_IP_CONNTRACK</t>
+          <t>CHECK_CONNTRACK_BUCKETS</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
@@ -728,9 +728,9 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="Z2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="Z2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -754,338 +754,16 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>HOST</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>OS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>FINAL_RESULT</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>CHECK_LISTS_USER</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>IPTABLES</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>APP_USING_ROOT</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TIMEZONE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>SSH_PROTOCOL2</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CHECK_CONF_PASSWORD</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>90_DAYS_CHANGE_PASS</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CHECK_TMOUT</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>PERMIT_ROOT_LOGIN</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>CHECK_ALLOW_USERS</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>GROUP_SUDO_WHEEL</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>CHECK_NF_CONNTRACK</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>CHECK_IP_CONNTRACK</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>CHECK_CRONTAB</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>CHECK_CRONTAB_MAX_CONF</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>CHECK_NETWORK_MANAGER</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>BLUETOOTH</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>CUPS</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>CHECK_KDUMP</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>192.168.227.11 SSH Fail!</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>192.168.227.11</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>CentOS Linux</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>NOK</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="H2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="J2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="L2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="N2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="O2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="P2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="Q2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="R2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="S2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="T2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="U2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="V2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>192.168.227.12</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>CentOS Linux</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>NOK</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="J3" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K3" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="L3" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M3" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="N3" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="O3" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="P3" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="Q3" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="R3" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="S3" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="T3" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="U3" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="V3" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>192.168.227.12 SSH Fail!</t>
         </is>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -723,9 +723,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="Y2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="Y2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="Z2" s="4" t="inlineStr">

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="ubuntu" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="IP_SSH_FAIL" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="centos" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -462,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,6 +601,16 @@
           <t>CHECK_KDUMP</t>
         </is>
       </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_SENDMAIL</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_POSTFIX</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -729,6 +739,16 @@
         </is>
       </c>
       <c r="Z2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AA2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AB2" s="4" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -745,7 +765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -754,16 +774,383 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>192.168.227.11 SSH Fail!</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>HOST</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>OS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FINAL_RESULT</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_LISTS_USER</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>IPTABLES</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>APP_USING_ROOT</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>TIMEZONE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SSH_PROTOCOL2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_CONF_PASSWORD</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>90_DAYS_CHANGE_PASS</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_TMOUT</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>PERMIT_ROOT_LOGIN</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_ALLOW_USERS</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>GROUP_SUDO_WHEEL</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_NF_CONNTRACK_MAX</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_CONNTRACK_BUCKETS</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_CRONTAB</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_CRONTAB_MAX_CONF</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_NETWORK_MANAGER</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>BLUETOOTH</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>CUPS</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_KDUMP</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_SENDMAIL</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_POSTFIX</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>RC_LOCAL_CHECK</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>192.168.227.12 SSH Fail!</t>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>192.168.227.11</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>CentOS Linux</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="L2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="N2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="O2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Q2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="R2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="S2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="T2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="U2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="V2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="W2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="X2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Y2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>192.168.227.12</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>CentOS Linux</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="N3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="O3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Q3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="R3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="S3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="T3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="U3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="V3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="W3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="X3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Y3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -733,9 +733,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="Y2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="Y2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="Z2" s="4" t="inlineStr">
@@ -1103,9 +1103,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="P3" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="P3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="Q3" s="4" t="inlineStr">

--- a/result.xlsx
+++ b/result.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ubuntu" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="centos" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="centos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ubuntu" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -462,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,139 +488,124 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_KERNEL_NEWEST</t>
+          <t>CHECK_LISTS_USER</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>NOT_NECESSARY_PACKAGE</t>
+          <t>IPTABLES</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_LISTS_USER</t>
+          <t>APP_USING_ROOT</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>IPTABLES</t>
+          <t>TIMEZONE</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>NETFILTER</t>
+          <t>SSH_PROTOCOL2</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>APP_USING_ROOT</t>
+          <t>CHECK_CONF_PASSWORD</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>TIMEZONE</t>
+          <t>90_DAYS_CHANGE_PASS</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>SSH_PROTOCOL2</t>
+          <t>CHECK_TMOUT</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_CONF_PASSWORD</t>
+          <t>PERMIT_ROOT_LOGIN</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_CONF_PASSWORD_SHA512</t>
+          <t>CHECK_ALLOW_USERS</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>90_DAYS_CHANGE_PASS</t>
+          <t>GROUP_SUDO_WHEEL</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_TMOUT</t>
+          <t>CHECK_NF_CONNTRACK_MAX</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>PERMIT_ROOT_LOGIN</t>
+          <t>CHECK_CONNTRACK_BUCKETS</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_ALLOW_USERS</t>
+          <t>CHECK_CRONTAB</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>GROUP_SUDO_WHEEL</t>
+          <t>CHECK_CRONTAB_MAX_CONF</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_NF_CONNTRACK_MAX</t>
+          <t>CHECK_NETWORK_MANAGER</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_CONNTRACK_BUCKETS</t>
+          <t>BLUETOOTH</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_CRONTAB</t>
+          <t>CUPS</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_CRONTAB_MAX_CONF</t>
+          <t>CHECK_KDUMP</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>CHECK_SENDMAIL</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_POSTFIX</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>RC_LOCAL_CHECK</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>BLUETOOTH</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>CUPS</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>CHECK_KDUMP</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>CHECK_SENDMAIL</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>CHECK_POSTFIX</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>192.168.227.10</t>
+          <t>192.168.159.34</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Ubuntu</t>
+          <t>CentOS Linux</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -653,9 +638,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="J2" s="4" t="inlineStr">
@@ -668,9 +653,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="L2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="L2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="M2" s="5" t="inlineStr">
@@ -678,9 +663,9 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="N2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="N2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="O2" s="4" t="inlineStr">
@@ -698,9 +683,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="R2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="R2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="S2" s="4" t="inlineStr">
@@ -718,9 +703,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="V2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="V2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -733,22 +718,515 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="Y2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="Z2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="AA2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="AB2" s="4" t="inlineStr">
+      <c r="Y2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>192.168.159.56</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>CentOS Linux</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="M3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="N3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="O3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Q3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="R3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="S3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="T3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="U3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="V3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="W3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="X3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Y3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>192.168.159.67</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>CentOS Linux</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="M4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="N4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="O4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Q4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="R4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="S4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="T4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="U4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="V4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="W4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="X4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Y4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>192.168.159.201</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>CentOS Linux</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="M5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="N5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="O5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Q5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="R5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="S5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="T5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="U5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="V5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="W5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="X5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Y5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>192.168.159.101</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>CentOS Linux</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="O6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="S6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="T6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="U6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="V6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="W6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="X6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Y6" s="4" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -765,7 +1243,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -791,124 +1269,139 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>CHECK_KERNEL_NEWEST</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>NOT_NECESSARY_PACKAGE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>CHECK_LISTS_USER</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>IPTABLES</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>NETFILTER</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>APP_USING_ROOT</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>TIMEZONE</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>SSH_PROTOCOL2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>CHECK_CONF_PASSWORD</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_CONF_PASSWORD_SHA512</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>90_DAYS_CHANGE_PASS</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>CHECK_TMOUT</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>PERMIT_ROOT_LOGIN</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>CHECK_ALLOW_USERS</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>GROUP_SUDO_WHEEL</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>CHECK_NF_CONNTRACK_MAX</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>CHECK_CONNTRACK_BUCKETS</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>CHECK_CRONTAB</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>CHECK_CRONTAB_MAX_CONF</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>CHECK_NETWORK_MANAGER</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>RC_LOCAL_CHECK</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>BLUETOOTH</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>CUPS</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>CHECK_KDUMP</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>CHECK_SENDMAIL</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>CHECK_POSTFIX</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>RC_LOCAL_CHECK</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>192.168.227.11</t>
+          <t>192.168.159.178</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>CentOS Linux</t>
+          <t>Ubuntu</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -941,9 +1434,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="I2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="J2" s="4" t="inlineStr">
@@ -951,19 +1444,19 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="K2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="L2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="K2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="L2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="M2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="N2" s="4" t="inlineStr">
@@ -981,9 +1474,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="Q2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="Q2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="R2" s="5" t="inlineStr">
@@ -1006,9 +1499,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="V2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="V2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -1022,6 +1515,21 @@
         </is>
       </c>
       <c r="Y2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Z2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AA2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AB2" s="4" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -1030,12 +1538,12 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>192.168.227.12</t>
+          <t>192.168.159.23</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>CentOS Linux</t>
+          <t>Ubuntu</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -1068,9 +1576,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="J3" s="4" t="inlineStr">
@@ -1078,24 +1586,24 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="K3" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="L3" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M3" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="N3" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="K3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="M3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="N3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="O3" s="4" t="inlineStr">
@@ -1103,14 +1611,14 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="P3" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="Q3" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="P3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Q3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="R3" s="5" t="inlineStr">
@@ -1133,9 +1641,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="V3" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="V3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -1149,6 +1657,447 @@
         </is>
       </c>
       <c r="Y3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Z3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AA3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AB3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>192.168.159.90</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Ubuntu</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="M4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="N4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="O4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Q4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="R4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="S4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="T4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="U4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="V4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="W4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="X4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Y4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Z4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AA4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AB4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>192.168.159.44</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Ubuntu</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="M5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="N5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="O5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Q5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="R5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="S5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="T5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="U5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="V5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="W5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="X5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Y5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Z5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AA5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AB5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>192.168.159.88</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Ubuntu</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="N6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="O6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Q6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="U6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="W6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="X6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Y6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Z6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AA6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AB6" s="4" t="inlineStr">
         <is>
           <t>OK</t>
         </is>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1186,9 +1186,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="Q6" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="Q6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="R6" s="5" t="inlineStr">
@@ -1945,9 +1945,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="Z5" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="Z5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="AA5" s="4" t="inlineStr">

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ubuntu" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="centos" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="centos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ubuntu" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -462,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,159 +488,184 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_KERNEL_NEWEST</t>
+          <t>CHECK_LISTS_USER</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>NOT_NECESSARY_PACKAGE</t>
+          <t>CHECK_BASIC_PACKAGE</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_LISTS_USER</t>
+          <t>IPTABLES</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>IPTABLES</t>
+          <t>APP_USING_ROOT</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>NETFILTER</t>
+          <t>TIMEZONE</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>APP_USING_ROOT</t>
+          <t>SSH_PROTOCOL2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>TIMEZONE</t>
+          <t>CHECK_CONF_PASSWORD</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>SSH_PROTOCOL2</t>
+          <t>90_DAYS_CHANGE_PASS</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_CONF_PASSWORD</t>
+          <t>CHECK_TMOUT</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_CONF_PASSWORD_SHA512</t>
+          <t>PERMIT_ROOT_LOGIN</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>90_DAYS_CHANGE_PASS</t>
+          <t>CHECK_ALLOW_USERS</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_TMOUT</t>
+          <t>GROUP_SUDO_WHEEL</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>PERMIT_ROOT_LOGIN</t>
+          <t>CHECK_NF_CONNTRACK_MAX</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_ALLOW_USERS</t>
+          <t>CHECK_CONNTRACK_BUCKETS</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>GROUP_SUDO_WHEEL</t>
+          <t>CHECK_CRONTAB</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_NF_CONNTRACK_MAX</t>
+          <t>CHECK_CRONTAB_MAX_CONF</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_CONNTRACK_BUCKETS</t>
+          <t>CHECK_NETWORK_MANAGER</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_CRONTAB</t>
+          <t>BLUETOOTH</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_CRONTAB_MAX_CONF</t>
+          <t>CUPS</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>CHECK_KDUMP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_SENDMAIL</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_POSTFIX</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
           <t>RC_LOCAL_CHECK</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>BLUETOOTH</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>CUPS</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>CHECK_KDUMP</t>
-        </is>
-      </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_SENDMAIL</t>
+          <t>CHECK_VIRBR</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_POSTFIX</t>
+          <t>CHECK_VERSION_OPENSSL</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_VIRBR</t>
+          <t>CHECK_DANGER_PATH</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_VERSION_OPENSSL</t>
+          <t>CHECK_MULTIPATH</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_DANGER_PATH</t>
+          <t>CHECK_SWAPPINESS</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>CHECK_MULTIPATH</t>
+          <t>CHECK_HAVEGED</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_REPO_CONNECT</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_MEMORY_SWAP</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_MYSQL</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_BANDWIDTH</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_FILE_NOUSER</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>192.168.227.10</t>
+          <t>192.168.159.34</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Ubuntu</t>
+          <t>CentOS Linux</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -653,9 +678,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -678,9 +703,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="J2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="J2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="K2" s="4" t="inlineStr">
@@ -698,14 +723,14 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="N2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="O2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="N2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="O2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="P2" s="4" t="inlineStr">
@@ -723,9 +748,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="S2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="S2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="T2" s="4" t="inlineStr">
@@ -738,9 +763,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="V2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="V2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -753,9 +778,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="Y2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="Y2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="Z2" s="4" t="inlineStr">
@@ -778,17 +803,790 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="AD2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="AE2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="AD2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AE2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="AF2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AG2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AH2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AI2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AJ2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AK2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>192.168.159.56</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>CentOS Linux</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="K3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="N3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="O3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="P3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Q3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="R3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="S3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="T3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="U3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="V3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="W3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="X3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Y3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Z3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AA3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AB3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AC3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AD3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AE3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AF3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AG3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AH3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AI3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AJ3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AK3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>192.168.159.67</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>CentOS Linux</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="L4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="N4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="O4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="P4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Q4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="R4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="S4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="T4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="U4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="V4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="W4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="X4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Y4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Z4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AA4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AB4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AC4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AD4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AE4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AF4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AG4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AH4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AI4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AJ4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AK4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>192.168.159.201</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>CentOS Linux</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="N5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="O5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="P5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Q5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="R5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="S5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="T5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="U5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="V5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="W5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="X5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Y5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Z5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AA5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AB5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AC5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AD5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AE5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AF5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AG5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AH5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AI5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AJ5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AK5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>192.168.159.101</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>CentOS Linux</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="P6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Q6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="R6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="T6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="U6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="V6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="W6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="X6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Y6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Z6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AA6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AB6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AC6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AD6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AF6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AG6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AH6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AI6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AJ6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AK6" s="4" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -805,7 +1603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AN6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -831,144 +1629,199 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>CHECK_KERNEL_NEWEST</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_BASIC_PACKAGE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>NOT_NECESSARY_PACKAGE</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>CHECK_LISTS_USER</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>IPTABLES</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>NETFILTER</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>APP_USING_ROOT</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>TIMEZONE</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>SSH_PROTOCOL2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>CHECK_CONF_PASSWORD</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_CONF_PASSWORD_SHA512</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>90_DAYS_CHANGE_PASS</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>CHECK_TMOUT</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>PERMIT_ROOT_LOGIN</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>CHECK_ALLOW_USERS</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>GROUP_SUDO_WHEEL</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>CHECK_NF_CONNTRACK_MAX</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>CHECK_CONNTRACK_BUCKETS</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>CHECK_CRONTAB</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>CHECK_CRONTAB_MAX_CONF</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>CHECK_NETWORK_MANAGER</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>RC_LOCAL_CHECK</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>BLUETOOTH</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>CUPS</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>CHECK_KDUMP</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>CHECK_SENDMAIL</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>CHECK_POSTFIX</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>RC_LOCAL_CHECK</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>CHECK_VIRBR</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>CHECK_VERSION_OPENSSL</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>CHECK_DANGER_PATH</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>CHECK_MULTIPATH</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_SWAPPINESS</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_HAVEGED</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_REPO_CONNECT</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_MEMORY_SWAP</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_MYSQL</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_BANDWIDTH</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_FILE_NOUSER</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>192.168.227.11</t>
+          <t>192.168.159.178</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>CentOS Linux</t>
+          <t>Ubuntu</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -981,9 +1834,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -1001,9 +1854,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="I2" s="5" t="inlineStr">
-        <is>
-          <t>WARNING</t>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="J2" s="4" t="inlineStr">
@@ -1021,14 +1874,14 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="M2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="N2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="M2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="N2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="O2" s="4" t="inlineStr">
@@ -1051,9 +1904,9 @@
           <t>WARNING</t>
         </is>
       </c>
-      <c r="S2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="S2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="T2" s="4" t="inlineStr">
@@ -1071,9 +1924,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="W2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
+      <c r="W2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="X2" s="4" t="inlineStr">
@@ -1102,6 +1955,869 @@
         </is>
       </c>
       <c r="AC2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AD2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AE2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AF2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AG2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AH2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AI2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AJ2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AK2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AL2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AM2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AN2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>192.168.159.23</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Ubuntu</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="N3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="O3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Q3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="R3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="S3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="T3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="U3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="V3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="W3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="X3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Y3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Z3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AA3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AB3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AC3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AD3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AE3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AF3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AG3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AH3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AI3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AJ3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AK3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AL3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AM3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AN3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>192.168.159.90</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Ubuntu</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="L4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="N4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="O4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Q4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="R4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="S4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="T4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="U4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="V4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="W4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="X4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Y4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Z4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AA4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AB4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AC4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AD4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AE4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AF4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AG4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AH4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AI4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AJ4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AK4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AL4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AM4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AN4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>192.168.159.44</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Ubuntu</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="N5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="O5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Q5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="R5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="S5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="T5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="U5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="V5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="W5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="X5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Y5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Z5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AA5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AB5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AC5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AD5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AE5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AF5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AG5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AH5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AI5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AJ5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AK5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AL5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AM5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AN5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>192.168.159.88</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Ubuntu</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="O6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Q6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="R6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="V6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="X6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Y6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Z6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AA6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AB6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AC6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AD6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AF6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AG6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AH6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AI6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AJ6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AK6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AL6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AM6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AN6" s="4" t="inlineStr">
         <is>
           <t>OK</t>
         </is>

--- a/result.xlsx
+++ b/result.xlsx
@@ -462,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AU6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,6 +656,56 @@
           <t>CHECK_FILE_NOUSER</t>
         </is>
       </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>MAX_OPEN_FILE_USER</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>MAX_OPEN_FILE_SERVER</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>MAX_PROCESS</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_PASS_EXPIRES</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_VAR</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_APP</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_SIRC</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>ZONE_RECLAIM_MODE</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>RSYSLOG_1</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>RSYSLOG_2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -843,6 +893,56 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="AL2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AM2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AN2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AO2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AP2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AQ2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AR2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AS2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AT2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AU2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -1030,6 +1130,56 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="AL3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AM3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AN3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AO3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AP3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AQ3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AR3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AS3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AT3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AU3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -1217,6 +1367,56 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="AL4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AM4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AN4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AO4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AP4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AQ4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AR4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AS4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AT4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AU4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -1404,6 +1604,56 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="AL5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AM5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AN5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AO5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AP5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AQ5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AR5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AS5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AT5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AU5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -1589,6 +1839,56 @@
       <c r="AK6" s="4" t="inlineStr">
         <is>
           <t>OK</t>
+        </is>
+      </c>
+      <c r="AL6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AM6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AN6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AO6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AP6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AQ6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AR6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AS6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AT6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AU6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
     </row>
@@ -1603,7 +1903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN6"/>
+  <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1812,6 +2112,61 @@
           <t>CHECK_FILE_NOUSER</t>
         </is>
       </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>MAX_OPEN_FILE_USER</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>MAX_OPEN_FILE_SERVER</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>MAX_PROCESS</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_PASS_EXPIRES</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_VAR</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_APP</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_SIRC</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>ZONE_RECLAIM_MODE</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>CHECK_RSYSLOG_SERVICE</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>RSYSLOG_1</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>RSYSLOG_2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -2014,6 +2369,61 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="AO2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AP2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AQ2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AR2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AS2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AT2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AU2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AV2" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AW2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AX2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AY2" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -2216,6 +2626,61 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="AO3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AP3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AQ3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AR3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AS3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AT3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AU3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AV3" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AW3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AX3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AY3" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -2418,6 +2883,61 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="AO4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AP4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AQ4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AR4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AS4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AT4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AU4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AV4" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AW4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AX4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AY4" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -2620,6 +3140,61 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="AO5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AP5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AQ5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AR5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AS5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AT5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AU5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AV5" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AW5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AX5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AY5" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -2820,6 +3395,61 @@
       <c r="AN6" s="4" t="inlineStr">
         <is>
           <t>OK</t>
+        </is>
+      </c>
+      <c r="AO6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AP6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AQ6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AR6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AS6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AT6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AU6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AV6" s="4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AW6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AX6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="AY6" s="5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
         </is>
       </c>
     </row>
